--- a/HLS_man/COP22/COP22_man_israel.xlsx
+++ b/HLS_man/COP22/COP22_man_israel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A71711-EAEA-4234-A6C0-04B6D0BC7DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511D38A-FFAB-49EF-B0DF-8647DE86176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>COP22_israel</t>
   </si>
@@ -373,21 +373,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>policy target, mitigation</t>
-  </si>
-  <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>distant future</t>
-  </si>
-  <si>
-    <t>sufficientarian</t>
   </si>
   <si>
     <t>Israel established a national mitigation 
@@ -400,9 +385,6 @@
 renewable energy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Setting of policytarget for emissions and exact measures how. Defined as sufficientarian. </t>
-  </si>
-  <si>
     <t>moral responsibilty, UNFCCC agreements and principles</t>
   </si>
   <si>
@@ -415,40 +397,22 @@
     <t>proioritarian</t>
   </si>
   <si>
-    <t>other(support)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Support of developing countries, for the benefit of the worst off. </t>
   </si>
   <si>
-    <t>other(knowledge)</t>
-  </si>
-  <si>
-    <t>technical resources</t>
-  </si>
-  <si>
-    <t>prioritarian</t>
-  </si>
-  <si>
-    <t>redistribution of knowledge with a focus on the developing world</t>
-  </si>
-  <si>
-    <t>other(innovations), other(technology)</t>
-  </si>
-  <si>
-    <t>utilitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sharing of knowledge and tech for the benefit of all. </t>
-  </si>
-  <si>
-    <t>other(cooperation)</t>
-  </si>
-  <si>
     <t>measures</t>
   </si>
   <si>
     <t xml:space="preserve">focus on the need for cooperation focussing on a global mission, thus the benefit of all. </t>
+  </si>
+  <si>
+    <t>utilitarian, egalitarian</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
 </sst>
 </file>
@@ -467,6 +431,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -819,16 +784,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -865,7 +830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -873,7 +838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -881,7 +846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -889,7 +854,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -897,7 +862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -905,7 +870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -913,7 +878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -921,7 +886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -929,7 +894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -937,33 +902,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -971,7 +918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -979,7 +926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -987,7 +934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -995,7 +942,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1019,7 +966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1035,7 +982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +990,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1051,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1059,7 +1006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1067,7 +1014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1083,25 +1030,25 @@
         <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1109,7 +1056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1117,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1125,7 +1072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1133,7 +1080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1149,7 +1096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
@@ -1157,7 +1104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
@@ -1165,7 +1112,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1173,59 +1120,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1233,7 +1144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -1241,7 +1152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1249,7 +1160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
@@ -1257,7 +1168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -1265,7 +1176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -1273,7 +1184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -1281,7 +1192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -1289,7 +1200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -1297,7 +1208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -1305,7 +1216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -1313,7 +1224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -1321,7 +1232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -1329,7 +1240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
@@ -1337,7 +1248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
@@ -1353,25 +1264,25 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" t="s">
         <v>75</v>
       </c>
-      <c r="F54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s">
-        <v>85</v>
-      </c>
       <c r="H54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>61</v>
       </c>
@@ -1379,7 +1290,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
@@ -1387,7 +1298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
@@ -1395,7 +1306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>64</v>
       </c>

--- a/HLS_man/COP22/COP22_man_israel.xlsx
+++ b/HLS_man/COP22/COP22_man_israel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511D38A-FFAB-49EF-B0DF-8647DE86176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC76C2DD-4C48-45C3-B8BB-E23D601CBD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>COP22_israel</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -367,12 +361,6 @@
   <si>
     <t xml:space="preserve">
 Thank you </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>Israel established a national mitigation 
@@ -385,12 +373,6 @@
 renewable energy.</t>
   </si>
   <si>
-    <t>moral responsibilty, UNFCCC agreements and principles</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
@@ -400,19 +382,25 @@
     <t xml:space="preserve">Support of developing countries, for the benefit of the worst off. </t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">focus on the need for cooperation focussing on a global mission, thus the benefit of all. </t>
-  </si>
-  <si>
-    <t>utilitarian, egalitarian</t>
-  </si>
-  <si>
     <t>cooperation</t>
   </si>
   <si>
-    <t>support</t>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">focus on the need for cooperation focussing on a global mission, thus the benefit of all. No specific distribution highlighted. </t>
+  </si>
+  <si>
+    <t>utilitarian</t>
   </si>
 </sst>
 </file>
@@ -782,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +781,7 @@
     <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,511 +795,502 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
+      <c r="B27">
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
+      <c r="B32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" t="s">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" t="s">
-        <v>65</v>
+      <c r="B58">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
